--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6A9195-7A5A-442C-A190-42A0C95B1D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F9201-53A4-4EE1-A58A-D7F40716771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="10575" yWindow="2595" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,31 +72,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +223,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -589,7 +572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,15 +616,15 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="7">
         <v>5</v>
@@ -672,7 +655,7 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7">
@@ -705,8 +688,8 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>5</v>
@@ -738,8 +721,8 @@
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -771,8 +754,8 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -804,8 +787,8 @@
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>

--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F9201-53A4-4EE1-A58A-D7F40716771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011E1507-A554-4B92-A9F6-6AF1B3E54423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="2595" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4425" yWindow="1200" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable3" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,51 @@
     <cellStyle name="좋음" xfId="4" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -570,9 +614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="7">
-        <v>9.6898418726703711E+32</v>
+        <v>2.4092071597527171E+82</v>
       </c>
       <c r="G2" s="7">
         <v>1000</v>
@@ -668,8 +712,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7">
-        <f>F2*2.25</f>
-        <v>2.1802144213508335E+33</v>
+        <v>4.8184143195054342E+82</v>
       </c>
       <c r="G3" s="7">
         <v>1000</v>
@@ -701,8 +744,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:F7" si="0">F3*2.25</f>
-        <v>4.9054824480393752E+33</v>
+        <v>9.6368286390108684E+82</v>
       </c>
       <c r="G4" s="7">
         <v>1000</v>
@@ -734,8 +776,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1037335508088594E+34</v>
+        <v>1.9273657278021737E+83</v>
       </c>
       <c r="G5" s="7">
         <v>1000</v>
@@ -767,8 +808,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4834004893199338E+34</v>
+        <v>3.8547314556043474E+83</v>
       </c>
       <c r="G6" s="7">
         <v>1000</v>
@@ -800,8 +840,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>5.5876511009698509E+34</v>
+        <v>7.7094629112086947E+83</v>
       </c>
       <c r="G7" s="7">
         <v>1000</v>
@@ -819,7 +858,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:J7">
-    <cfRule type="expression" dxfId="0" priority="24">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011E1507-A554-4B92-A9F6-6AF1B3E54423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E15E1-4E4B-4574-8766-6C1392439EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="1200" windowWidth="16695" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,15 +79,20 @@
     <t>1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,65 +108,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,69 +126,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" quotePrefix="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="강조색1" xfId="3" builtinId="29"/>
-    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
-    <cellStyle name="보통" xfId="2" builtinId="28"/>
-    <cellStyle name="좋음" xfId="4" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -612,254 +544,749 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="39" style="1" customWidth="1"/>
-    <col min="6" max="6" width="70.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
+        <v>73</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2.4092071597527171E+82</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.8184143195054301E+82</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>9003</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>9.6368286390108684E+82</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>700</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.9273657278021737E+83</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>800</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3.8547314556043474E+83</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>2.4092071597527171E+82</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="7">
-        <v>8</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>9003</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>7.7094629112086947E+83</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C8">
+        <v>73</v>
+      </c>
+      <c r="D8">
+        <v>900</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7.3721739088433103E+83</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8.7557471634441596E+83</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>9003</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1.0139320418045E+84</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>1100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1.1522893672645799E+84</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <v>1200</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1.2906466927246699E+84</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>9003</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.42900401818475E+84</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>1300</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1.5673613436448301E+84</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>1400</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.7057186691049201E+84</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>9003</v>
+      </c>
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>4.8184143195054342E+82</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="7">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1.8440759945649999E+84</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>9.6368286390108684E+82</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="C17">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>1500</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1.5673613436448301E+84</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>1600</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.7057186691049201E+84</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>9003</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1.8440759945649999E+84</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.9273657278021737E+83</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3.8547314556043474E+83</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>7.7094629112086947E+83</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>3000</v>
+      <c r="C20">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>1700</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1.5673613436448301E+84</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>73</v>
+      </c>
+      <c r="D21">
+        <v>1800</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.7057186691049201E+84</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>9003</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1.8440759945649999E+84</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J7">
-    <cfRule type="expression" dxfId="2" priority="24">
+  <conditionalFormatting sqref="A2:J7 C8:J22 A8:A22">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>$C2=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$C8=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B13">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$C11=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B22">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$C14=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E15E1-4E4B-4574-8766-6C1392439EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E890281-653E-4503-97B8-9CCB7293E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,51 +145,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -544,11 +500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,8 +567,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>2.4092071597527171E+82</v>
+      <c r="F2" s="2">
+        <v>1E+100</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -644,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>4.8184143195054301E+82</v>
+        <v>1E+100</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -675,8 +631,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>9.6368286390108684E+82</v>
+      <c r="F4" s="2">
+        <v>1E+100</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -707,8 +663,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1.9273657278021737E+83</v>
+      <c r="F5" s="2">
+        <v>1E+100</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -739,8 +695,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>3.8547314556043474E+83</v>
+      <c r="F6" s="2">
+        <v>1E+100</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -771,8 +727,8 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>7.7094629112086947E+83</v>
+      <c r="F7" s="2">
+        <v>1E+100</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -803,8 +759,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>7.3721739088433103E+83</v>
+      <c r="F8" s="2">
+        <v>1E+100</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -836,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>8.7557471634441596E+83</v>
+        <v>1E+100</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -867,8 +823,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1.0139320418045E+84</v>
+      <c r="F10" s="2">
+        <v>1E+100</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -899,8 +855,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>1.1522893672645799E+84</v>
+      <c r="F11" s="2">
+        <v>1E+100</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -931,8 +887,8 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1.2906466927246699E+84</v>
+      <c r="F12" s="2">
+        <v>1E+100</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -947,346 +903,16 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>9003</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1.42900401818475E+84</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>73</v>
-      </c>
-      <c r="D14">
-        <v>1300</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1.5673613436448301E+84</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>73</v>
-      </c>
-      <c r="D15">
-        <v>1400</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.7057186691049201E+84</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>9003</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1.8440759945649999E+84</v>
-      </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>73</v>
-      </c>
-      <c r="D17">
-        <v>1500</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1.5673613436448301E+84</v>
-      </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>73</v>
-      </c>
-      <c r="D18">
-        <v>1600</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.7057186691049201E+84</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>9003</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1.8440759945649999E+84</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>73</v>
-      </c>
-      <c r="D20">
-        <v>1700</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1.5673613436448301E+84</v>
-      </c>
-      <c r="G20">
-        <v>1000</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>73</v>
-      </c>
-      <c r="D21">
-        <v>1800</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.7057186691049201E+84</v>
-      </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>9003</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1.8440759945649999E+84</v>
-      </c>
-      <c r="G22">
-        <v>1000</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>4800</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J7 C8:J22 A8:A22">
-    <cfRule type="expression" dxfId="3" priority="29">
+  <conditionalFormatting sqref="A2:J2 A3:E7 C8:E12 A8:A12 B11:B12 F3:J12">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$C8=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$C11=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B22">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$C14=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E890281-653E-4503-97B8-9CCB7293E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE959613-17B0-4728-962E-CEA12EE61888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F12"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>1E+100</v>
+        <v>10000000000</v>
       </c>
       <c r="G12">
         <v>1000</v>

--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE959613-17B0-4728-962E-CEA12EE61888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC18521-1556-4192-AA98-2C962471BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38505" yWindow="1590" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable3" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,271 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -504,7 +768,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>10000000000</v>
+        <v>1.1534641572220231E+73</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -600,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>10000000000</v>
+        <v>2.0762354829996418E+73</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -632,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>10000000000</v>
+        <v>3.7372238693993552E+73</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -664,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>10000000000</v>
+        <v>6.727002964918839E+73</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -696,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>10000000000</v>
+        <v>1.2108605336853911E+74</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -728,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>10000000000</v>
+        <v>2.1795489606337041E+74</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -760,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>10000000000</v>
+        <v>3.9231881291406675E+74</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -792,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>10000000000</v>
+        <v>7.0617386324532015E+74</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -824,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>10000000000</v>
+        <v>1.2711129538415763E+75</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -856,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>10000000000</v>
+        <v>2.2880033169148373E+75</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -888,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>10000000000</v>
+        <v>4.1184059704467071E+75</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -906,12 +1170,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:J2 A3:E7 C8:E12 A8:A12 B11:B12 F3:J12">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$C8=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC18521-1556-4192-AA98-2C962471BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA07D3A-836F-40E6-B9B7-AE321DFE8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38505" yWindow="1590" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,205 +145,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -764,11 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1167,16 +969,255 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>9003</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.4654041140929396E+75</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>1100</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5.3688044909664197E+75</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>1200</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6.2722048678398999E+75</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>9003</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7.17560524471338E+75</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>1100</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8.0790056215868601E+75</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>1200</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8.9824059984603402E+75</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>9003</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7.17560524471338E+75</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 A3:E7 C8:E12 A8:A12 B11:B12 F3:J12">
-    <cfRule type="expression" dxfId="13" priority="29">
+  <conditionalFormatting sqref="A2:J2 A3:E7 C8:E12 B11:B12 F3:J12 B14:B15 B17:B18 C13:J19 A8:A19">
+    <cfRule type="expression" dxfId="4" priority="32">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$C8=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C13=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C16=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C19=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA07D3A-836F-40E6-B9B7-AE321DFE8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCEF31C-6D22-4F7C-9880-44074A33CEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,7 +145,557 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -566,11 +1116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,13 +1178,14 @@
         <v>73</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <f>QUOTIENT(A2,3)*500 + 1000</f>
+        <v>1000</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>1.1534641572220231E+73</v>
+        <v>7.0974754609387704E+62</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -660,13 +1211,15 @@
         <v>73</v>
       </c>
       <c r="D3">
-        <v>600</v>
+        <f>QUOTIENT(A3,3)*500 + 1000</f>
+        <v>1000</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>2.0762354829996418E+73</v>
+        <f>F2*4</f>
+        <v>2.8389901843755082E+63</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -692,13 +1245,15 @@
         <v>9003</v>
       </c>
       <c r="D4">
+        <f>QUOTIENT(A4,3) + 1</f>
         <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>3.7372238693993552E+73</v>
+        <f t="shared" ref="F4:F31" si="0">F3*4</f>
+        <v>1.1355960737502033E+64</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -724,13 +1279,15 @@
         <v>73</v>
       </c>
       <c r="D5">
-        <v>700</v>
+        <f>QUOTIENT(A5,3)*500 + 1000</f>
+        <v>1500</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>6.727002964918839E+73</v>
+        <f t="shared" si="0"/>
+        <v>4.5423842950008131E+64</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -756,13 +1313,15 @@
         <v>73</v>
       </c>
       <c r="D6">
-        <v>800</v>
+        <f>QUOTIENT(A6,3)*500 + 1000</f>
+        <v>1500</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>1.2108605336853911E+74</v>
+        <f t="shared" si="0"/>
+        <v>1.8169537180003252E+65</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -788,13 +1347,15 @@
         <v>9003</v>
       </c>
       <c r="D7">
+        <f>QUOTIENT(A7,3) + 1</f>
         <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>2.1795489606337041E+74</v>
+        <f t="shared" si="0"/>
+        <v>7.2678148720013009E+65</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -820,13 +1381,15 @@
         <v>73</v>
       </c>
       <c r="D8">
-        <v>900</v>
+        <f>QUOTIENT(A8,3)*500 + 1000</f>
+        <v>2000</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>3.9231881291406675E+74</v>
+        <f t="shared" si="0"/>
+        <v>2.9071259488005204E+66</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -852,13 +1415,15 @@
         <v>73</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <f>QUOTIENT(A9,3)*500 + 1000</f>
+        <v>2000</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>7.0617386324532015E+74</v>
+        <f t="shared" si="0"/>
+        <v>1.1628503795202081E+67</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -884,13 +1449,15 @@
         <v>9003</v>
       </c>
       <c r="D10">
+        <f>QUOTIENT(A10,3) + 1</f>
         <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1.2711129538415763E+75</v>
+        <f t="shared" si="0"/>
+        <v>4.6514015180808326E+67</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -916,13 +1483,15 @@
         <v>73</v>
       </c>
       <c r="D11">
-        <v>1100</v>
+        <f>QUOTIENT(A11,3)*500 + 1000</f>
+        <v>2500</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>2.2880033169148373E+75</v>
+        <f t="shared" si="0"/>
+        <v>1.860560607232333E+68</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -948,13 +1517,15 @@
         <v>73</v>
       </c>
       <c r="D12">
-        <v>1200</v>
+        <f>QUOTIENT(A12,3)*500 + 1000</f>
+        <v>2500</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>4.1184059704467071E+75</v>
+        <f t="shared" si="0"/>
+        <v>7.4422424289293321E+68</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -980,13 +1551,15 @@
         <v>9003</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <f>QUOTIENT(A13,3) + 1</f>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>4.4654041140929396E+75</v>
+        <f t="shared" si="0"/>
+        <v>2.9768969715717328E+69</v>
       </c>
       <c r="G13">
         <v>1000</v>
@@ -1012,13 +1585,15 @@
         <v>73</v>
       </c>
       <c r="D14">
-        <v>1100</v>
+        <f>QUOTIENT(A14,3)*500 + 1000</f>
+        <v>3000</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>5.3688044909664197E+75</v>
+        <f t="shared" si="0"/>
+        <v>1.1907587886286931E+70</v>
       </c>
       <c r="G14">
         <v>1000</v>
@@ -1044,13 +1619,15 @@
         <v>73</v>
       </c>
       <c r="D15">
-        <v>1200</v>
+        <f>QUOTIENT(A15,3)*500 + 1000</f>
+        <v>3000</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>6.2722048678398999E+75</v>
+        <f t="shared" si="0"/>
+        <v>4.7630351545147726E+70</v>
       </c>
       <c r="G15">
         <v>1000</v>
@@ -1076,13 +1653,15 @@
         <v>9003</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <f>QUOTIENT(A16,3) + 1</f>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>7.17560524471338E+75</v>
+        <f t="shared" si="0"/>
+        <v>1.905214061805909E+71</v>
       </c>
       <c r="G16">
         <v>1000</v>
@@ -1108,13 +1687,15 @@
         <v>73</v>
       </c>
       <c r="D17">
-        <v>1100</v>
+        <f>QUOTIENT(A17,3)*500 + 1000</f>
+        <v>3500</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>8.0790056215868601E+75</v>
+        <f t="shared" si="0"/>
+        <v>7.6208562472236361E+71</v>
       </c>
       <c r="G17">
         <v>1000</v>
@@ -1140,13 +1721,15 @@
         <v>73</v>
       </c>
       <c r="D18">
-        <v>1200</v>
+        <f>QUOTIENT(A18,3)*500 + 1000</f>
+        <v>3500</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>8.9824059984603402E+75</v>
+        <f t="shared" si="0"/>
+        <v>3.0483424988894544E+72</v>
       </c>
       <c r="G18">
         <v>1000</v>
@@ -1172,13 +1755,15 @@
         <v>9003</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <f>QUOTIENT(A19,3) + 1</f>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>7.17560524471338E+75</v>
+        <f t="shared" si="0"/>
+        <v>1.2193369995557818E+73</v>
       </c>
       <c r="G19">
         <v>1000</v>
@@ -1193,31 +1778,504 @@
         <v>4800</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <f>QUOTIENT(A20,3)*500 + 1000</f>
+        <v>4000</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8773479982231271E+73</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>73</v>
+      </c>
+      <c r="D21">
+        <f>QUOTIENT(A21,3)*500 + 1000</f>
+        <v>4000</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9509391992892508E+74</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>9003</v>
+      </c>
+      <c r="D22">
+        <f>QUOTIENT(A22,3) + 1</f>
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8037567971570034E+74</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>73</v>
+      </c>
+      <c r="D23">
+        <f>QUOTIENT(A23,3)*500 + 1000</f>
+        <v>4500</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1215027188628013E+75</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <f>QUOTIENT(A24,3)*500 + 1000</f>
+        <v>4500</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2486010875451205E+76</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>9003</v>
+      </c>
+      <c r="D25">
+        <f>QUOTIENT(A25,3) + 1</f>
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9944043501804821E+76</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>73</v>
+      </c>
+      <c r="D26">
+        <f>QUOTIENT(A26,3)*500 + 1000</f>
+        <v>5000</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9977617400721929E+77</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <f>QUOTIENT(A27,3)*500 + 1000</f>
+        <v>5000</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9910469602887714E+77</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>9003</v>
+      </c>
+      <c r="D28">
+        <f>QUOTIENT(A28,3) + 1</f>
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1964187841155086E+78</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>73</v>
+      </c>
+      <c r="D29">
+        <f>QUOTIENT(A29,3)*500 + 1000</f>
+        <v>5500</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2785675136462034E+79</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <f>QUOTIENT(A30,3)*500 + 1000</f>
+        <v>5500</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1142700545848137E+79</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>9003</v>
+      </c>
+      <c r="D31">
+        <f>QUOTIENT(A31,3) + 1</f>
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0457080218339255E+80</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>4902</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 A3:E7 C8:E12 B11:B12 F3:J12 B14:B15 B17:B18 C13:J19 A8:A19">
-    <cfRule type="expression" dxfId="4" priority="32">
+  <conditionalFormatting sqref="A2:J2 B11:B12 B14:B15 B17:B18 A8:A31 E20:E31 F3:J31 A3:E7 C8:E19">
+    <cfRule type="expression" dxfId="4" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="29" priority="26">
       <formula>$C8=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="28" priority="21">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="27" priority="20">
       <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="26" priority="19">
+      <formula>$C19=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="expression" dxfId="25" priority="18">
+      <formula>$C20=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="24" priority="17">
+      <formula>$C22=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C31">
+    <cfRule type="expression" dxfId="3" priority="16">
+      <formula>$C20=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="expression" dxfId="22" priority="14">
+      <formula>$C23=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="21" priority="13">
+      <formula>$C25=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="expression" dxfId="20" priority="12">
+      <formula>$C26=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="19" priority="11">
+      <formula>$C28=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B30">
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>$C29=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>$C31=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D22">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>$C20=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D25">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$C23=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D28">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$C26=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D31">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C19=5</formula>
+      <formula>$C29=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCEF31C-6D22-4F7C-9880-44074A33CEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEC8E6-7AF2-4996-8842-D8FF8E240C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -145,271 +145,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -1120,7 +856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1245,8 +981,7 @@
         <v>9003</v>
       </c>
       <c r="D4">
-        <f>QUOTIENT(A4,3) + 1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1347,8 +1082,7 @@
         <v>9003</v>
       </c>
       <c r="D7">
-        <f>QUOTIENT(A7,3) + 1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1449,8 +1183,7 @@
         <v>9003</v>
       </c>
       <c r="D10">
-        <f>QUOTIENT(A10,3) + 1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1551,8 +1284,7 @@
         <v>9003</v>
       </c>
       <c r="D13">
-        <f>QUOTIENT(A13,3) + 1</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1653,8 +1385,7 @@
         <v>9003</v>
       </c>
       <c r="D16">
-        <f>QUOTIENT(A16,3) + 1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1755,8 +1486,7 @@
         <v>9003</v>
       </c>
       <c r="D19">
-        <f>QUOTIENT(A19,3) + 1</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1857,8 +1587,7 @@
         <v>9003</v>
       </c>
       <c r="D22">
-        <f>QUOTIENT(A22,3) + 1</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1959,8 +1688,7 @@
         <v>9003</v>
       </c>
       <c r="D25">
-        <f>QUOTIENT(A25,3) + 1</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2061,8 +1789,7 @@
         <v>9003</v>
       </c>
       <c r="D28">
-        <f>QUOTIENT(A28,3) + 1</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2163,8 +1890,7 @@
         <v>9003</v>
       </c>
       <c r="D31">
-        <f>QUOTIENT(A31,3) + 1</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2189,87 +1915,87 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:J2 B11:B12 B14:B15 B17:B18 A8:A31 E20:E31 F3:J31 A3:E7 C8:E19">
-    <cfRule type="expression" dxfId="4" priority="50">
+    <cfRule type="expression" dxfId="17" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="29" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$C8=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="28" priority="21">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="27" priority="20">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>$C19=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="expression" dxfId="25" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>$C20=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="24" priority="17">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>$C22=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C31">
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>$C20=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>$C23=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>$C25=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>$C26=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>$C28=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$C29=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$C20=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C23=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C26=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable3.xlsx
+++ b/Assets/06.Table/TowerTable3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEC8E6-7AF2-4996-8842-D8FF8E240C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF1CA0-0061-475E-9434-D673EB3F9910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,29 +145,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -852,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -987,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F31" si="0">F3*4</f>
+        <f t="shared" ref="F4:F41" si="0">F3*4</f>
         <v>1.1355960737502033E+64</v>
       </c>
       <c r="G4">
@@ -1505,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4800</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1539,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5000</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1573,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5020</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1606,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5040</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1640,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4982</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1674,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4972</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1707,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4962</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1741,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>4952</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1775,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4942</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1808,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>4932</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1842,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>4922</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1876,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>4912</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1909,49 +1887,381 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>4902</v>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D41" si="1">QUOTIENT(A32,3)*500 + 1000</f>
+        <v>6000</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>8.182832087335702E+80</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>73</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2731328349342808E+81</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>9003</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3092531339737123E+82</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>73</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D41" si="2">QUOTIENT(A35,3)*500 + 1000</f>
+        <v>6500</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2370125358948492E+82</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0948050143579397E+83</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>9003</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3792200574317588E+83</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>73</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D41" si="3">QUOTIENT(A38,3)*500 + 1000</f>
+        <v>7000</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3516880229727035E+84</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>73</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3406752091890814E+85</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>9003</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3627008367563256E+85</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>73</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="4">QUOTIENT(A41,3)*500 + 1000</f>
+        <v>7500</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1450803347025303E+86</v>
+      </c>
+      <c r="G41">
+        <v>1000</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>9800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 B11:B12 B14:B15 B17:B18 A8:A31 E20:E31 F3:J31 A3:E7 C8:E19">
-    <cfRule type="expression" dxfId="17" priority="50">
+  <conditionalFormatting sqref="A2:J2 B11:B12 B14:B15 B17:B18 A3:E7 C8:E19 A8:A41 C20:C41 E20:E41 F3:J41">
+    <cfRule type="expression" dxfId="16" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="15" priority="26">
       <formula>$C8=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>$C19=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>$C20=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>$C22=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C31">
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$C20=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
@@ -1964,22 +2274,22 @@
       <formula>$C25=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B27">
+  <conditionalFormatting sqref="B26:B27 B32:B33 B38:B39">
     <cfRule type="expression" dxfId="7" priority="12">
       <formula>$C26=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="B28 B34 B40">
     <cfRule type="expression" dxfId="6" priority="11">
       <formula>$C28=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B30">
+  <conditionalFormatting sqref="B29:B30 B35:B36 B41">
     <cfRule type="expression" dxfId="5" priority="10">
       <formula>$C29=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
+  <conditionalFormatting sqref="B31 B37">
     <cfRule type="expression" dxfId="4" priority="9">
       <formula>$C31=5</formula>
     </cfRule>
@@ -1994,12 +2304,12 @@
       <formula>$C23=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
+  <conditionalFormatting sqref="D26:D28 D32:D34 D38:D40">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C26=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D31">
+  <conditionalFormatting sqref="D29:D31 D35:D37 D41">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C29=5</formula>
     </cfRule>
